--- a/File/Load_Source기능분석_프로토콜.xlsx
+++ b/File/Load_Source기능분석_프로토콜.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677422A2-3BE4-4D5F-B6EA-D9D0C1B354A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE47735-0360-46AF-B945-0A54B1F93035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BB98294-1960-4744-BCEB-6537C693FA54}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1BB98294-1960-4744-BCEB-6537C693FA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="317">
   <si>
     <t>🧩 ① 겹치는 기능 (공통 기능)</t>
   </si>
@@ -367,9 +367,6 @@
     <t>OCP 설정</t>
   </si>
   <si>
-    <t>CURR:PROT &lt;value&gt;</t>
-  </si>
-  <si>
     <t>*RST</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
     <t>모든 명령 완료 후 다음 명령 실행</t>
   </si>
   <si>
-    <t>[:SOURce]:VOLTage[:SET] &lt;channel&gt;,&lt;value&gt;</t>
-  </si>
-  <si>
     <t>선택 채널의 전압 설정</t>
   </si>
   <si>
@@ -996,9 +990,6 @@
     <t>:SOURce:CURRent:RISE:SLOPe CH1,8</t>
   </si>
   <si>
-    <t>CV/CC 우선 모드</t>
-  </si>
-  <si>
     <t>`[:SOURce][:CVCC]:PRIOrity ,{CC</t>
   </si>
   <si>
@@ -1503,31 +1494,6 @@
   </si>
   <si>
     <t>연속 CV/CR/CC 트랜지언트 동작 설정 및 시작</t>
-  </si>
-  <si>
-    <r>
-      <t>TRAN:MODE CONT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>TRAN ON</t>
-    </r>
   </si>
   <si>
     <t>펄스 트랜지언트 설정</t>
@@ -1734,6 +1700,48 @@
   </si>
   <si>
     <t>`[:SOURce]:OUTPut[:STATe] {ON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TRAN:MODE CONT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRAN ON</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURR:PROT &lt;value&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[:SOURce]:VOLTage[:SET] &lt;channel&gt;,&lt;value&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV/CC 우선 모드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력 측정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2212,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67355A-E905-49B1-84AA-E96E16339D78}">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2641,76 +2649,76 @@
     </row>
     <row r="26" spans="2:12" ht="30">
       <c r="B26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="H26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="L28" s="2">
         <v>65</v>
@@ -2718,32 +2726,32 @@
     </row>
     <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="2">
         <v>80</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L29" s="2">
         <v>65</v>
@@ -2751,98 +2759,98 @@
     </row>
     <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="2">
         <v>80</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="L30" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="F31" s="2">
         <v>80</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="L31" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F32" s="2">
         <v>80</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>87</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L32" s="2">
         <v>67</v>
@@ -2850,32 +2858,32 @@
     </row>
     <row r="33" spans="2:12" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="F33" s="2">
         <v>80</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="L33" s="2">
         <v>68</v>
@@ -2883,65 +2891,65 @@
     </row>
     <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="F34" s="2">
         <v>81</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="F35" s="2">
         <v>81</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>93</v>
+        <v>313</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L35" s="2">
         <v>69</v>
@@ -2949,32 +2957,32 @@
     </row>
     <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="F36" s="2">
         <v>82</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="L36" s="2">
         <v>69</v>
@@ -2982,32 +2990,32 @@
     </row>
     <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="2">
         <v>82</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="L37" s="2">
         <v>69</v>
@@ -3015,32 +3023,32 @@
     </row>
     <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L38" s="2">
         <v>69</v>
@@ -3048,32 +3056,32 @@
     </row>
     <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="F39" s="2">
         <v>83</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L39" s="2">
         <v>69</v>
@@ -3081,32 +3089,32 @@
     </row>
     <row r="40" spans="2:12" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="2">
         <v>83</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="L40" s="2">
         <v>66</v>
@@ -3114,65 +3122,65 @@
     </row>
     <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F41" s="2">
         <v>83</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="F42" s="2">
         <v>83</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L42" s="2">
         <v>66</v>
@@ -3183,62 +3191,62 @@
         <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="2">
         <v>84</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="F44" s="2">
         <v>84</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L44" s="2">
         <v>67</v>
@@ -3249,29 +3257,29 @@
         <v>92</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" s="2">
         <v>84</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L45" s="2">
         <v>68</v>
@@ -3279,32 +3287,32 @@
     </row>
     <row r="46" spans="2:12" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L46" s="2">
         <v>71</v>
@@ -3312,32 +3320,32 @@
     </row>
     <row r="47" spans="2:12" ht="30" customHeight="1">
       <c r="B47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F47" s="2">
         <v>85</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L47" s="2">
         <v>71</v>
@@ -3345,16 +3353,16 @@
     </row>
     <row r="48" spans="2:12" ht="30" customHeight="1">
       <c r="B48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F48" s="2">
         <v>85</v>
@@ -3364,154 +3372,154 @@
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1">
       <c r="B49" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="F49" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="26.4">
       <c r="B51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="F51" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="34.799999999999997" customHeight="1">
       <c r="B52" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="F52" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="34.799999999999997">
+    <row r="53" spans="2:8">
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="26.4">
       <c r="B54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="F54" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F57" s="2">
         <v>96</v>
@@ -3519,33 +3527,33 @@
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F59" s="2">
         <v>97</v>
@@ -3553,16 +3561,16 @@
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="F60" s="2">
         <v>97</v>
@@ -3570,33 +3578,33 @@
     </row>
     <row r="61" spans="2:8" ht="34.799999999999997">
       <c r="B61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="F62" s="2">
         <v>97</v>

--- a/File/Load_Source기능분석_프로토콜.xlsx
+++ b/File/Load_Source기능분석_프로토콜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadTest\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadSource\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE47735-0360-46AF-B945-0A54B1F93035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639B561-38B8-428C-9AEC-E302C94C63B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1BB98294-1960-4744-BCEB-6537C693FA54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BB98294-1960-4744-BCEB-6537C693FA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67355A-E905-49B1-84AA-E96E16339D78}">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/File/Load_Source기능분석_프로토콜.xlsx
+++ b/File/Load_Source기능분석_프로토콜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sales\Desktop\LoadSource\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639B561-38B8-428C-9AEC-E302C94C63B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48921794-04B2-4508-AE34-20D1CFA514BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BB98294-1960-4744-BCEB-6537C693FA54}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="318">
   <si>
     <t>🧩 ① 겹치는 기능 (공통 기능)</t>
   </si>
@@ -1742,6 +1743,10 @@
   </si>
   <si>
     <t>전력 측정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2226,7 @@
   <dimension ref="B2:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2762,7 +2767,7 @@
         <v>131</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>132</v>
